--- a/output/database.xlsx
+++ b/output/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>url</t>
   </si>
@@ -85,40 +85,37 @@
     <t>gender</t>
   </si>
   <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066797&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066805&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17732781&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17950648&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066770&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066783&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17805951&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17955665&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066796&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=18046548&amp;search_id=1397861655&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=10422436&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066820&amp;search_id=1397861655&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397861655%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=10422436&amp;search_id=1397862000&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=18022898&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397862000%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066937&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066947&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066938&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17313571&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17919034&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066871&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066934&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066910&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=16707529&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=10422436&amp;search_id=1397876317&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=18022898&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066893&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
   </si>
   <si>
     <t>22-Nov</t>
@@ -127,210 +124,177 @@
     <t>House share</t>
   </si>
   <si>
+    <t>Shared property</t>
+  </si>
+  <si>
     <t>Flat share</t>
   </si>
   <si>
-    <t>Shared property</t>
+    <t>Woolwich</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Crossharbour</t>
+  </si>
+  <si>
+    <t>Streatham</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Harringay</t>
+  </si>
+  <si>
+    <t>Queen's Park</t>
   </si>
   <si>
     <t>Leyton</t>
   </si>
   <si>
-    <t>Canary Wharf</t>
-  </si>
-  <si>
-    <t>Clapham</t>
-  </si>
-  <si>
-    <t>Seven Sisters</t>
-  </si>
-  <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Harringay</t>
-  </si>
-  <si>
-    <t>Tooting Broadway</t>
-  </si>
-  <si>
-    <t>Northfields</t>
-  </si>
-  <si>
-    <t>Balham</t>
-  </si>
-  <si>
-    <t>Turnpike Lane</t>
-  </si>
-  <si>
-    <t>Streatham Hill</t>
+    <t>Old Street</t>
   </si>
   <si>
     <t>South Wimbledon</t>
   </si>
   <si>
+    <t>Enfield</t>
+  </si>
+  <si>
     <t>35 mins</t>
   </si>
   <si>
-    <t>16 mins</t>
+    <t>23 mins</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>60 mins</t>
+  </si>
+  <si>
+    <t>59 mins</t>
+  </si>
+  <si>
+    <t>51 mins</t>
+  </si>
+  <si>
+    <t>47 mins</t>
+  </si>
+  <si>
+    <t>50 mins</t>
+  </si>
+  <si>
+    <t>38 mins</t>
+  </si>
+  <si>
+    <t>55 mins</t>
+  </si>
+  <si>
+    <t>70 mins</t>
+  </si>
+  <si>
+    <t>41 mins</t>
+  </si>
+  <si>
+    <t>46 mins</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>37 mins</t>
   </si>
   <si>
     <t>56 mins</t>
   </si>
   <si>
-    <t>46 mins</t>
-  </si>
-  <si>
-    <t>40 mins</t>
-  </si>
-  <si>
-    <t>60 mins</t>
-  </si>
-  <si>
-    <t>48 mins</t>
-  </si>
-  <si>
-    <t>59 mins</t>
-  </si>
-  <si>
-    <t>54 mins</t>
-  </si>
-  <si>
-    <t>51 mins</t>
-  </si>
-  <si>
-    <t>57 mins</t>
-  </si>
-  <si>
-    <t>55 mins</t>
-  </si>
-  <si>
-    <t>47 mins</t>
-  </si>
-  <si>
-    <t>36 mins</t>
-  </si>
-  <si>
-    <t>30 mins</t>
-  </si>
-  <si>
-    <t>29 mins</t>
-  </si>
-  <si>
-    <t>41 mins</t>
-  </si>
-  <si>
-    <t>28 mins</t>
-  </si>
-  <si>
-    <t>45 mins</t>
-  </si>
-  <si>
-    <t>34 mins</t>
-  </si>
-  <si>
-    <t>44 mins</t>
-  </si>
-  <si>
-    <t>42 mins</t>
-  </si>
-  <si>
-    <t>51.561579, -0.001208</t>
-  </si>
-  <si>
-    <t>51.495611, -0.015161</t>
-  </si>
-  <si>
-    <t>51.44913, -0.134142</t>
-  </si>
-  <si>
-    <t>51.582127, -0.077071</t>
-  </si>
-  <si>
-    <t>51.467045, -0.101736</t>
-  </si>
-  <si>
-    <t>51.586872, -0.09946</t>
-  </si>
-  <si>
-    <t>51.430645, -0.166314</t>
-  </si>
-  <si>
-    <t>51.500958, -0.314953</t>
-  </si>
-  <si>
-    <t>51.445079, -0.137257</t>
-  </si>
-  <si>
-    <t>51.585235, -0.105014</t>
-  </si>
-  <si>
-    <t>51.438644, -0.121159</t>
+    <t>51.493831, 0.056822</t>
+  </si>
+  <si>
+    <t>51.526059, -0.016647</t>
+  </si>
+  <si>
+    <t>51.495841, -0.014906</t>
+  </si>
+  <si>
+    <t>51.416176, -0.142372</t>
+  </si>
+  <si>
+    <t>51.565777, -0.231872</t>
+  </si>
+  <si>
+    <t>51.580486, -0.099016</t>
+  </si>
+  <si>
+    <t>51.541529, -0.210243</t>
+  </si>
+  <si>
+    <t>51.570087, -0.018772</t>
+  </si>
+  <si>
+    <t>51.5324, -0.087718</t>
   </si>
   <si>
     <t>51.410182, -0.19272</t>
   </si>
   <si>
-    <t xml:space="preserve">Canary Wharf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clapham South </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seven Sisters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loughborough Junction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turnpike Lane </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streatham Hill </t>
+    <t>51.616697, -0.08494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossharbour </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manor House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brondesbury Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Street </t>
   </si>
   <si>
     <t xml:space="preserve">South Wimbledon </t>
   </si>
   <si>
-    <t>11 Dec 2025</t>
-  </si>
-  <si>
     <t>Now</t>
   </si>
   <si>
-    <t>29 Nov 2025</t>
-  </si>
-  <si>
-    <t>21 Dec 2025</t>
-  </si>
-  <si>
-    <t>18 Dec 2025</t>
-  </si>
-  <si>
-    <t>02 Dec 2025</t>
-  </si>
-  <si>
-    <t>16 Dec 2025</t>
+    <t>25 Nov 2025</t>
+  </si>
+  <si>
+    <t>28 Nov 2025</t>
+  </si>
+  <si>
+    <t>20 Dec 2025</t>
+  </si>
+  <si>
+    <t>09 Jan 2026</t>
+  </si>
+  <si>
+    <t>26 Nov 2025</t>
   </si>
   <si>
     <t>01 Dec 2025</t>
   </si>
   <si>
-    <t>04 Dec 2025</t>
+    <t>6 months</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>1 month</t>
+  </si>
+  <si>
     <t>3 months</t>
   </si>
   <si>
-    <t>1 month</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -343,52 +307,46 @@
     <t>Furnished</t>
   </si>
   <si>
-    <t>Unfurnished</t>
-  </si>
-  <si>
     <t>shared</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>5</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
+    <t>3 Males</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>No preference</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>2 Females, 1 Male</t>
-  </si>
-  <si>
-    <t>2 Females, 2 Males</t>
-  </si>
-  <si>
-    <t>Males preferred</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>4 Females</t>
-  </si>
-  <si>
-    <t>3 Males</t>
+    <t>1 Female, 1 Male</t>
+  </si>
+  <si>
+    <t>2 Males</t>
+  </si>
+  <si>
+    <t>1 Female, 2 Males</t>
   </si>
   <si>
     <t>All Females</t>
@@ -761,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,19 +735,19 @@
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -865,824 +823,744 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
-        <v>27.7</v>
+        <v>20.3</v>
       </c>
       <c r="F2">
-        <v>300</v>
+        <v>650</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="L2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="U2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="V2" t="s">
-        <v>113</v>
-      </c>
-      <c r="W2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>17.4</v>
       </c>
       <c r="F3">
-        <v>917</v>
+        <v>800</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="U3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" t="s">
         <v>105</v>
-      </c>
-      <c r="P3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T3" t="s">
-        <v>106</v>
-      </c>
-      <c r="U3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V3" t="s">
-        <v>114</v>
-      </c>
-      <c r="W3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>18.2</v>
+        <v>15.4</v>
       </c>
       <c r="F4">
-        <v>500</v>
+        <v>917</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L4" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" t="s">
         <v>103</v>
       </c>
-      <c r="N4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="W4" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" t="s">
-        <v>106</v>
-      </c>
-      <c r="S4" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" t="s">
-        <v>105</v>
-      </c>
-      <c r="U4" t="s">
-        <v>112</v>
-      </c>
-      <c r="V4" t="s">
-        <v>111</v>
-      </c>
-      <c r="W4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>13.9</v>
       </c>
       <c r="F5">
-        <v>795</v>
+        <v>700</v>
       </c>
       <c r="G5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" t="s">
+        <v>100</v>
+      </c>
+      <c r="V5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W5" t="s">
         <v>106</v>
-      </c>
-      <c r="T5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U5" t="s">
-        <v>113</v>
-      </c>
-      <c r="V5" t="s">
-        <v>114</v>
-      </c>
-      <c r="W5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>13.8</v>
       </c>
       <c r="F6">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O6" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="s">
         <v>96</v>
       </c>
-      <c r="M6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="R6" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V6" t="s">
+        <v>103</v>
+      </c>
+      <c r="W6" t="s">
         <v>107</v>
-      </c>
-      <c r="P6" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T6" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" t="s">
-        <v>114</v>
-      </c>
-      <c r="V6" t="s">
-        <v>115</v>
-      </c>
-      <c r="W6" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
-        <v>15.9</v>
+        <v>12.4</v>
       </c>
       <c r="F7">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="M7" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U7" t="s">
         <v>101</v>
       </c>
-      <c r="O7" t="s">
-        <v>105</v>
-      </c>
-      <c r="P7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" t="s">
         <v>108</v>
-      </c>
-      <c r="R7" t="s">
-        <v>105</v>
-      </c>
-      <c r="S7" t="s">
-        <v>110</v>
-      </c>
-      <c r="T7" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" t="s">
-        <v>114</v>
-      </c>
-      <c r="V7" t="s">
-        <v>115</v>
-      </c>
-      <c r="W7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8">
-        <v>15.6</v>
+        <v>11.9</v>
       </c>
       <c r="F8">
-        <v>800</v>
+        <v>880</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" t="s">
+        <v>94</v>
+      </c>
+      <c r="S8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" t="s">
         <v>101</v>
       </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-      <c r="R8" t="s">
-        <v>105</v>
-      </c>
-      <c r="S8" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" t="s">
-        <v>113</v>
-      </c>
       <c r="V8" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>13.2</v>
+        <v>11.9</v>
       </c>
       <c r="F9">
-        <v>850</v>
+        <v>810</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
       </c>
       <c r="L9" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>90</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" t="s">
         <v>99</v>
       </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-      <c r="O9" t="s">
-        <v>105</v>
-      </c>
-      <c r="P9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
-      <c r="R9" t="s">
-        <v>105</v>
-      </c>
-      <c r="S9" t="s">
-        <v>106</v>
-      </c>
-      <c r="U9" t="s">
-        <v>112</v>
-      </c>
       <c r="V9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="W9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>11.3</v>
       </c>
       <c r="F10">
-        <v>890</v>
+        <v>875</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
       </c>
       <c r="L10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>94</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="T10" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" t="s">
         <v>100</v>
-      </c>
-      <c r="M10" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" t="s">
-        <v>101</v>
-      </c>
-      <c r="O10" t="s">
-        <v>106</v>
-      </c>
-      <c r="P10" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>108</v>
-      </c>
-      <c r="R10" t="s">
-        <v>105</v>
-      </c>
-      <c r="S10" t="s">
-        <v>110</v>
-      </c>
-      <c r="U10" t="s">
-        <v>111</v>
-      </c>
-      <c r="V10" t="s">
-        <v>114</v>
-      </c>
-      <c r="W10" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>11.9</v>
+        <v>10.4</v>
       </c>
       <c r="F11">
-        <v>690</v>
+        <v>895</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" t="s">
         <v>82</v>
       </c>
-      <c r="L11" t="s">
-        <v>93</v>
-      </c>
       <c r="M11" t="s">
+        <v>89</v>
+      </c>
+      <c r="N11" t="s">
+        <v>90</v>
+      </c>
+      <c r="O11" t="s">
+        <v>95</v>
+      </c>
+      <c r="P11" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V11" t="s">
         <v>104</v>
       </c>
-      <c r="N11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R11" t="s">
-        <v>105</v>
-      </c>
-      <c r="S11" t="s">
-        <v>106</v>
-      </c>
-      <c r="U11" t="s">
-        <v>114</v>
-      </c>
-      <c r="V11" t="s">
-        <v>115</v>
-      </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12">
-        <v>11.9</v>
+        <v>8.4</v>
       </c>
       <c r="F12">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" t="s">
+        <v>92</v>
+      </c>
+      <c r="N12" t="s">
         <v>90</v>
       </c>
-      <c r="L12" t="s">
-        <v>93</v>
-      </c>
-      <c r="M12" t="s">
-        <v>101</v>
-      </c>
-      <c r="N12" t="s">
-        <v>101</v>
-      </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="Q12" t="s">
-        <v>108</v>
-      </c>
-      <c r="R12" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="S12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="T12" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="U12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="V12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13">
-        <v>10.4</v>
-      </c>
-      <c r="F13">
-        <v>895</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" t="s">
-        <v>93</v>
-      </c>
-      <c r="M13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s">
-        <v>101</v>
-      </c>
-      <c r="O13" t="s">
         <v>107</v>
-      </c>
-      <c r="P13" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>108</v>
-      </c>
-      <c r="R13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S13" t="s">
-        <v>106</v>
-      </c>
-      <c r="T13" t="s">
-        <v>106</v>
-      </c>
-      <c r="U13" t="s">
-        <v>115</v>
-      </c>
-      <c r="V13" t="s">
-        <v>116</v>
-      </c>
-      <c r="W13" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1576,6 @@
     <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
-    <hyperlink ref="A13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/database.xlsx
+++ b/output/database.xlsx
@@ -85,37 +85,37 @@
     <t>gender</t>
   </si>
   <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066937&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066947&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066938&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17313571&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17919034&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066871&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066934&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066910&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=16707529&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=10422436&amp;search_id=1397876317&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=18022898&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066893&amp;search_id=1397876317&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876317%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066937&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066947&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066938&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17313571&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17919034&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066871&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066934&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066910&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=16707529&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=10422436&amp;search_id=1397876735&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=18022898&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066893&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
   </si>
   <si>
     <t>22-Nov</t>

--- a/output/database.xlsx
+++ b/output/database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="236">
   <si>
     <t>url</t>
   </si>
@@ -58,7 +58,7 @@
     <t>maximum_term</t>
   </si>
   <si>
-    <t>bills_included?</t>
+    <t>bills_included</t>
   </si>
   <si>
     <t>broadband_included</t>
@@ -67,232 +67,598 @@
     <t>furnishings</t>
   </si>
   <si>
-    <t>garden/patio</t>
+    <t>garden_or_patio</t>
   </si>
   <si>
     <t>living_room</t>
   </si>
   <si>
-    <t>balcony/roof_terrace</t>
-  </si>
-  <si>
-    <t>#_flatmates</t>
-  </si>
-  <si>
-    <t>total_#_rooms</t>
+    <t>balcony_or_roof_terrace</t>
+  </si>
+  <si>
+    <t>number_of_flatmates</t>
+  </si>
+  <si>
+    <t>total_number_of_rooms</t>
   </si>
   <si>
     <t>gender</t>
   </si>
   <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066937&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066947&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066938&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17313571&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17919034&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066871&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066934&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066910&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=16707529&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=10422436&amp;search_id=1397876735&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=18022898&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
-  </si>
-  <si>
-    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066893&amp;search_id=1397876735&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397876735%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067169&amp;search_id=1397897033&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397897033%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067072&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067024&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17284686&amp;search_id=1397897033&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397897033%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067250&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/fad_click.pl?fad_id=4463417&amp;search_id=1397903227&amp;offset=0&amp;city_id=&amp;flatshare_type=offered&amp;next_id=16878531&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903227%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067114&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=16429148&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067047&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067020&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067005&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067036&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067116&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067049&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067052&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17372437&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067236&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18001901&amp;search_id=1397895682&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Foffset%3D10%26search_id%3D1397895682%26sort_by%3Ddays_since_placed%26mode%3Dlist&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067232&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18057118&amp;search_id=1397897688&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Fsearch_id%3D1397897688%26&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067229&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067184&amp;search_id=1397897033&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397897033%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17966364&amp;search_id=1397897688&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2F%3Fsearch_id%3D1397897688%26&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17666982&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067209&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067223&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067106&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18066987&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17932319&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067137&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=14801476&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067080&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17928909&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=17689451&amp;search_id=1397903181&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397903181%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067188&amp;search_id=1397897033&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397897033%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
+  </si>
+  <si>
+    <t>https://www.spareroom.co.uk/flatshare/flatshare_detail.pl?flatshare_id=18067077&amp;search_id=1397895587&amp;city_id=&amp;flatshare_type=offered&amp;search_results=%2Fflatshare%2Findex.cgi%3Fsearch_id%3D1397895587%26offset%3D0%26sort_by%3Ddays_since_placed&amp;</t>
   </si>
   <si>
     <t>22-Nov</t>
   </si>
   <si>
+    <t>Flat share</t>
+  </si>
+  <si>
     <t>House share</t>
   </si>
   <si>
     <t>Shared property</t>
   </si>
   <si>
-    <t>Flat share</t>
-  </si>
-  <si>
-    <t>Woolwich</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Crossharbour</t>
-  </si>
-  <si>
-    <t>Streatham</t>
+    <t>Canning Town</t>
+  </si>
+  <si>
+    <t>Whitechapel</t>
+  </si>
+  <si>
+    <t>Southwark</t>
   </si>
   <si>
     <t>London</t>
   </si>
   <si>
-    <t>Harringay</t>
-  </si>
-  <si>
-    <t>Queen's Park</t>
-  </si>
-  <si>
-    <t>Leyton</t>
-  </si>
-  <si>
-    <t>Old Street</t>
-  </si>
-  <si>
-    <t>South Wimbledon</t>
-  </si>
-  <si>
-    <t>Enfield</t>
-  </si>
-  <si>
-    <t>35 mins</t>
+    <t>Bermondsey</t>
+  </si>
+  <si>
+    <t>Stepney Green</t>
+  </si>
+  <si>
+    <t>Willesden Green</t>
+  </si>
+  <si>
+    <t>Canary Wharf</t>
+  </si>
+  <si>
+    <t>Bethnal Green</t>
+  </si>
+  <si>
+    <t>Ealing</t>
+  </si>
+  <si>
+    <t>Tottenham Hale</t>
+  </si>
+  <si>
+    <t>Battersea park</t>
+  </si>
+  <si>
+    <t>Blackhorse Road</t>
+  </si>
+  <si>
+    <t>Hackney</t>
+  </si>
+  <si>
+    <t>Clapton</t>
+  </si>
+  <si>
+    <t>Archway</t>
+  </si>
+  <si>
+    <t>Mile End</t>
+  </si>
+  <si>
+    <t>Upton</t>
+  </si>
+  <si>
+    <t>Ealing Broadway</t>
+  </si>
+  <si>
+    <t>North Greenwich</t>
+  </si>
+  <si>
+    <t>Grove Park</t>
+  </si>
+  <si>
+    <t>Ealing Common</t>
+  </si>
+  <si>
+    <t>Holloway</t>
+  </si>
+  <si>
+    <t>Putney Vale</t>
+  </si>
+  <si>
+    <t>Cricklewood</t>
+  </si>
+  <si>
+    <t>Wandsworth</t>
+  </si>
+  <si>
+    <t>Hammersmith and Fulham</t>
+  </si>
+  <si>
+    <t>Willesden Junction</t>
+  </si>
+  <si>
+    <t>Deptford</t>
+  </si>
+  <si>
+    <t>17 mins</t>
   </si>
   <si>
     <t>23 mins</t>
   </si>
   <si>
+    <t>36 mins</t>
+  </si>
+  <si>
+    <t>32 mins</t>
+  </si>
+  <si>
+    <t>19 mins</t>
+  </si>
+  <si>
+    <t>31 mins</t>
+  </si>
+  <si>
+    <t>43 mins</t>
+  </si>
+  <si>
     <t>15 mins</t>
   </si>
   <si>
-    <t>60 mins</t>
+    <t>41 mins</t>
+  </si>
+  <si>
+    <t>38 mins</t>
+  </si>
+  <si>
+    <t>61 mins</t>
+  </si>
+  <si>
+    <t>56 mins</t>
+  </si>
+  <si>
+    <t>48 mins</t>
+  </si>
+  <si>
+    <t>55 mins</t>
+  </si>
+  <si>
+    <t>44 mins</t>
+  </si>
+  <si>
+    <t>45 mins</t>
+  </si>
+  <si>
+    <t>47 mins</t>
+  </si>
+  <si>
+    <t>52 mins</t>
+  </si>
+  <si>
+    <t>26 mins</t>
+  </si>
+  <si>
+    <t>39 mins</t>
+  </si>
+  <si>
+    <t>42 mins</t>
+  </si>
+  <si>
+    <t>29 mins</t>
+  </si>
+  <si>
+    <t>79 mins</t>
+  </si>
+  <si>
+    <t>50 mins</t>
+  </si>
+  <si>
+    <t>58 mins</t>
   </si>
   <si>
     <t>59 mins</t>
   </si>
   <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>68 mins</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>24 mins</t>
+  </si>
+  <si>
+    <t>37 mins</t>
+  </si>
+  <si>
+    <t>57 mins</t>
+  </si>
+  <si>
+    <t>49 mins</t>
+  </si>
+  <si>
+    <t>34 mins</t>
+  </si>
+  <si>
     <t>51 mins</t>
   </si>
   <si>
-    <t>47 mins</t>
-  </si>
-  <si>
-    <t>50 mins</t>
-  </si>
-  <si>
-    <t>38 mins</t>
-  </si>
-  <si>
-    <t>55 mins</t>
-  </si>
-  <si>
-    <t>70 mins</t>
-  </si>
-  <si>
-    <t>41 mins</t>
-  </si>
-  <si>
-    <t>46 mins</t>
-  </si>
-  <si>
-    <t>45 mins</t>
-  </si>
-  <si>
-    <t>37 mins</t>
-  </si>
-  <si>
-    <t>56 mins</t>
-  </si>
-  <si>
-    <t>51.493831, 0.056822</t>
-  </si>
-  <si>
-    <t>51.526059, -0.016647</t>
-  </si>
-  <si>
-    <t>51.495841, -0.014906</t>
-  </si>
-  <si>
-    <t>51.416176, -0.142372</t>
-  </si>
-  <si>
-    <t>51.565777, -0.231872</t>
-  </si>
-  <si>
-    <t>51.580486, -0.099016</t>
-  </si>
-  <si>
-    <t>51.541529, -0.210243</t>
-  </si>
-  <si>
-    <t>51.570087, -0.018772</t>
-  </si>
-  <si>
-    <t>51.5324, -0.087718</t>
-  </si>
-  <si>
-    <t>51.410182, -0.19272</t>
-  </si>
-  <si>
-    <t>51.616697, -0.08494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crossharbour </t>
+    <t>53 mins</t>
+  </si>
+  <si>
+    <t>22 mins</t>
+  </si>
+  <si>
+    <t>67 mins</t>
+  </si>
+  <si>
+    <t>63 mins</t>
+  </si>
+  <si>
+    <t>51.512102, 0.025982</t>
+  </si>
+  <si>
+    <t>51.521091, -0.055714</t>
+  </si>
+  <si>
+    <t>51.506086, -0.09693</t>
+  </si>
+  <si>
+    <t>51.461676, -0.011728</t>
+  </si>
+  <si>
+    <t>51.489518, -0.043184</t>
+  </si>
+  <si>
+    <t>51.494715, -0.059993</t>
+  </si>
+  <si>
+    <t>51.525959, -0.042846</t>
+  </si>
+  <si>
+    <t>51.553223, -0.236085</t>
+  </si>
+  <si>
+    <t>51.509878, -0.023908</t>
+  </si>
+  <si>
+    <t>51.526149, 0.041007</t>
+  </si>
+  <si>
+    <t>51.53036, -0.047343</t>
+  </si>
+  <si>
+    <t>51.504516, -0.326652</t>
+  </si>
+  <si>
+    <t>51.594613, -0.060935</t>
+  </si>
+  <si>
+    <t>51.472959, -0.152768</t>
+  </si>
+  <si>
+    <t>51.589237, -0.034557</t>
+  </si>
+  <si>
+    <t>51.5574, 0.008158</t>
+  </si>
+  <si>
+    <t>51.511489, -0.320646</t>
+  </si>
+  <si>
+    <t>51.538927, -0.052024</t>
+  </si>
+  <si>
+    <t>51.559964, -0.05769</t>
+  </si>
+  <si>
+    <t>51.564364, -0.126297</t>
+  </si>
+  <si>
+    <t>51.524684, -0.031691</t>
+  </si>
+  <si>
+    <t>51.5428, 0.042718</t>
+  </si>
+  <si>
+    <t>51.518359, -0.304394</t>
+  </si>
+  <si>
+    <t>51.493229, 0.018721</t>
+  </si>
+  <si>
+    <t>51.438459, 0.016591</t>
+  </si>
+  <si>
+    <t>51.512279, -0.2876</t>
+  </si>
+  <si>
+    <t>51.555773, -0.132882</t>
+  </si>
+  <si>
+    <t>51.437357, -0.246519</t>
+  </si>
+  <si>
+    <t>51.561398, -0.208641</t>
+  </si>
+  <si>
+    <t>51.404328, -0.1408</t>
+  </si>
+  <si>
+    <t>51.453673, -0.183561</t>
+  </si>
+  <si>
+    <t>51.483163, -0.215296</t>
+  </si>
+  <si>
+    <t>51.536488, -0.245033</t>
+  </si>
+  <si>
+    <t>51.526398, -0.313091</t>
+  </si>
+  <si>
+    <t>51.488072, -0.03953</t>
+  </si>
+  <si>
+    <t>51.578096, -0.091542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom House </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whitechapel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">London Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Cross </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada Water </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bermondsey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mile End </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willesden Green </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upton Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ealing Broadway </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruce Grove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battersea Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackhorse Road </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ealing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clapton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Greenwich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ealing Common </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tufnell Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cricklewood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streatham Common </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandsworth Town </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willesden Junction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surrey Quays </t>
   </si>
   <si>
     <t xml:space="preserve">Manor House </t>
   </si>
   <si>
-    <t xml:space="preserve">Brondesbury Park </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old Street </t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Wimbledon </t>
+    <t>05 Dec 2025</t>
   </si>
   <si>
     <t>Now</t>
   </si>
   <si>
+    <t>12 Dec 2025</t>
+  </si>
+  <si>
     <t>25 Nov 2025</t>
   </si>
   <si>
+    <t>26 Nov 2025</t>
+  </si>
+  <si>
+    <t>14 Dec 2025</t>
+  </si>
+  <si>
+    <t>24 Nov 2025</t>
+  </si>
+  <si>
+    <t>01 Dec 2025</t>
+  </si>
+  <si>
     <t>28 Nov 2025</t>
   </si>
   <si>
-    <t>20 Dec 2025</t>
-  </si>
-  <si>
-    <t>09 Jan 2026</t>
-  </si>
-  <si>
-    <t>26 Nov 2025</t>
-  </si>
-  <si>
-    <t>01 Dec 2025</t>
+    <t>01 Jan 2026</t>
+  </si>
+  <si>
+    <t>27 Jan 2026</t>
+  </si>
+  <si>
+    <t>23 Nov 2025</t>
+  </si>
+  <si>
+    <t>23 Dec 2025</t>
+  </si>
+  <si>
+    <t>22 Dec 2025</t>
+  </si>
+  <si>
+    <t>30 Dec 2025</t>
+  </si>
+  <si>
+    <t>14 Jan 2026</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>2 months</t>
   </si>
   <si>
     <t>6 months</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>1 month</t>
   </si>
   <si>
-    <t>3 months</t>
+    <t>12 months</t>
   </si>
   <si>
     <t>Yes</t>
@@ -310,46 +676,49 @@
     <t>shared</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>1 Female, 1 Male</t>
+  </si>
+  <si>
+    <t>2 Females, 1 Male</t>
+  </si>
+  <si>
+    <t>No preference</t>
+  </si>
+  <si>
+    <t>2 Females, 3 Males</t>
+  </si>
+  <si>
+    <t>2 Females, 2 Males</t>
+  </si>
+  <si>
+    <t>3 Females</t>
+  </si>
+  <si>
+    <t>Females preferred</t>
   </si>
   <si>
     <t>3 Males</t>
   </si>
   <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>No preference</t>
-  </si>
-  <si>
-    <t>1 Female, 1 Male</t>
+    <t>1 Female, 2 Males</t>
+  </si>
+  <si>
+    <t>1 Female, 3 Males</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>All Females</t>
   </si>
   <si>
     <t>2 Males</t>
   </si>
   <si>
-    <t>1 Female, 2 Males</t>
-  </si>
-  <si>
-    <t>All Females</t>
+    <t>3 Females, 3 Males</t>
+  </si>
+  <si>
+    <t>3 Females, 4 Males</t>
   </si>
   <si>
     <t>link</t>
@@ -719,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -728,26 +1097,26 @@
     <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -823,744 +1192,2504 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>20.3</v>
+        <v>22.5</v>
       </c>
       <c r="F2">
-        <v>650</v>
+        <v>812</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R2" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V2" t="s">
-        <v>100</v>
+        <v>219</v>
+      </c>
+      <c r="T2" t="s">
+        <v>216</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="E3">
-        <v>17.4</v>
+        <v>21.7</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>168</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P3" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
+        <v>218</v>
+      </c>
+      <c r="R3" t="s">
+        <v>216</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
-      </c>
-      <c r="U3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" t="s">
-        <v>103</v>
+        <v>219</v>
+      </c>
+      <c r="T3" t="s">
+        <v>216</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
       </c>
       <c r="W3" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E4">
-        <v>15.4</v>
+        <v>21.7</v>
       </c>
       <c r="F4">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="N4" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="O4" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P4" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q4" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="T4" t="s">
-        <v>94</v>
-      </c>
-      <c r="U4" t="s">
-        <v>100</v>
-      </c>
-      <c r="V4" t="s">
-        <v>103</v>
+        <v>215</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>13.9</v>
+        <v>21.4</v>
       </c>
       <c r="F5">
-        <v>700</v>
+        <v>750</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>134</v>
+      </c>
+      <c r="K5" t="s">
+        <v>170</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>196</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="N5" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>215</v>
+      </c>
+      <c r="P5" t="s">
+        <v>215</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="T5" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" t="s">
-        <v>99</v>
+        <v>216</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
       </c>
       <c r="W5" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="E6">
-        <v>13.8</v>
+        <v>20.5</v>
       </c>
       <c r="F6">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>135</v>
+      </c>
+      <c r="K6" t="s">
+        <v>171</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="M6" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O6" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P6" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q6" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R6" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
-      </c>
-      <c r="U6" t="s">
-        <v>99</v>
-      </c>
-      <c r="V6" t="s">
-        <v>103</v>
+        <v>219</v>
+      </c>
+      <c r="T6" t="s">
+        <v>216</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
       </c>
       <c r="W6" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="E7">
-        <v>12.4</v>
+        <v>20.2</v>
       </c>
       <c r="F7">
-        <v>866</v>
+        <v>850</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>90</v>
+        <v>212</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q7" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="T7" t="s">
-        <v>94</v>
-      </c>
-      <c r="U7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V7" t="s">
-        <v>99</v>
+        <v>216</v>
+      </c>
+      <c r="U7">
+        <v>4</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
       </c>
       <c r="W7" t="s">
-        <v>108</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="E8">
-        <v>11.9</v>
+        <v>19.8</v>
       </c>
       <c r="F8">
-        <v>880</v>
+        <v>800</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="L8" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="M8" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="Q8" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="S8" t="s">
-        <v>97</v>
+        <v>219</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
-      </c>
-      <c r="U8" t="s">
-        <v>101</v>
-      </c>
-      <c r="V8" t="s">
-        <v>99</v>
+        <v>216</v>
+      </c>
+      <c r="U8">
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <v>4</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="E9">
-        <v>11.9</v>
+        <v>19.5</v>
       </c>
       <c r="F9">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="M9" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q9" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="T9" t="s">
-        <v>94</v>
-      </c>
-      <c r="U9" t="s">
-        <v>99</v>
-      </c>
-      <c r="V9" t="s">
-        <v>103</v>
+        <v>216</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <v>4</v>
       </c>
       <c r="W9" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E10">
-        <v>11.3</v>
+        <v>19.4</v>
       </c>
       <c r="F10">
-        <v>875</v>
+        <v>800</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>209</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O10" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="Q10" t="s">
-        <v>96</v>
-      </c>
-      <c r="R10" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="T10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U10" t="s">
-        <v>98</v>
-      </c>
-      <c r="V10" t="s">
-        <v>100</v>
+        <v>215</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="E11">
-        <v>10.4</v>
+        <v>19.2</v>
       </c>
       <c r="F11">
-        <v>895</v>
+        <v>700</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="N11" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="Q11" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="R11" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="T11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" t="s">
-        <v>102</v>
-      </c>
-      <c r="V11" t="s">
-        <v>104</v>
+        <v>216</v>
+      </c>
+      <c r="U11">
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
       </c>
       <c r="W11" t="s">
-        <v>111</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>235</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="E12">
-        <v>8.4</v>
+        <v>18.1</v>
       </c>
       <c r="F12">
-        <v>880</v>
+        <v>625</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
       </c>
       <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" t="s">
+        <v>210</v>
+      </c>
+      <c r="N12" t="s">
+        <v>209</v>
+      </c>
+      <c r="O12" t="s">
+        <v>216</v>
+      </c>
+      <c r="P12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>218</v>
+      </c>
+      <c r="R12" t="s">
+        <v>215</v>
+      </c>
+      <c r="S12" t="s">
+        <v>219</v>
+      </c>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>17.8</v>
+      </c>
+      <c r="F13">
+        <v>700</v>
+      </c>
+      <c r="G13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" t="s">
+        <v>199</v>
+      </c>
+      <c r="M13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" t="s">
+        <v>209</v>
+      </c>
+      <c r="O13" t="s">
+        <v>215</v>
+      </c>
+      <c r="P13" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" t="s">
+        <v>215</v>
+      </c>
+      <c r="S13" t="s">
+        <v>219</v>
+      </c>
+      <c r="T13" t="s">
+        <v>216</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>17.2</v>
+      </c>
+      <c r="F14">
+        <v>800</v>
+      </c>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+      <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>177</v>
+      </c>
+      <c r="L14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M14" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" t="s">
+        <v>209</v>
+      </c>
+      <c r="O14" t="s">
+        <v>215</v>
+      </c>
+      <c r="P14" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>218</v>
+      </c>
+      <c r="R14" t="s">
+        <v>216</v>
+      </c>
+      <c r="S14" t="s">
+        <v>219</v>
+      </c>
+      <c r="T14" t="s">
+        <v>216</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>17.1</v>
+      </c>
+      <c r="F15">
+        <v>650</v>
+      </c>
+      <c r="G15" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" t="s">
+        <v>210</v>
+      </c>
+      <c r="N15" t="s">
+        <v>209</v>
+      </c>
+      <c r="O15" t="s">
+        <v>216</v>
+      </c>
+      <c r="P15" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>218</v>
+      </c>
+      <c r="R15" t="s">
+        <v>216</v>
+      </c>
+      <c r="S15" t="s">
+        <v>219</v>
+      </c>
+      <c r="T15" t="s">
+        <v>216</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
       </c>
-      <c r="L12" t="s">
+      <c r="E16">
+        <v>16.7</v>
+      </c>
+      <c r="F16">
+        <v>850</v>
+      </c>
+      <c r="G16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" t="s">
+        <v>212</v>
+      </c>
+      <c r="N16" t="s">
+        <v>209</v>
+      </c>
+      <c r="O16" t="s">
+        <v>215</v>
+      </c>
+      <c r="P16" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>218</v>
+      </c>
+      <c r="R16" t="s">
+        <v>215</v>
+      </c>
+      <c r="S16" t="s">
+        <v>219</v>
+      </c>
+      <c r="T16" t="s">
+        <v>216</v>
+      </c>
+      <c r="U16">
+        <v>3</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17">
+        <v>16.3</v>
+      </c>
+      <c r="F17">
+        <v>815</v>
+      </c>
+      <c r="G17" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" t="s">
+        <v>124</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" t="s">
+        <v>212</v>
+      </c>
+      <c r="N17" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" t="s">
+        <v>217</v>
+      </c>
+      <c r="P17" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>218</v>
+      </c>
+      <c r="R17" t="s">
+        <v>215</v>
+      </c>
+      <c r="S17" t="s">
+        <v>219</v>
+      </c>
+      <c r="U17">
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>15.9</v>
+      </c>
+      <c r="F18">
+        <v>981</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>180</v>
+      </c>
+      <c r="L18" t="s">
+        <v>194</v>
+      </c>
+      <c r="M18" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18" t="s">
+        <v>209</v>
+      </c>
+      <c r="O18" t="s">
+        <v>215</v>
+      </c>
+      <c r="P18" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>218</v>
+      </c>
+      <c r="R18" t="s">
+        <v>215</v>
+      </c>
+      <c r="S18" t="s">
+        <v>219</v>
+      </c>
+      <c r="T18" t="s">
+        <v>216</v>
+      </c>
+      <c r="U18">
+        <v>3</v>
+      </c>
+      <c r="V18">
+        <v>6</v>
+      </c>
+      <c r="W18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>15.8</v>
+      </c>
+      <c r="F19">
+        <v>880</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s">
+        <v>209</v>
+      </c>
+      <c r="O19" t="s">
+        <v>215</v>
+      </c>
+      <c r="P19" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>218</v>
+      </c>
+      <c r="S19" t="s">
+        <v>219</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20">
+        <v>15.4</v>
+      </c>
+      <c r="F20">
+        <v>690</v>
+      </c>
+      <c r="G20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
+      <c r="M20" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" t="s">
+        <v>209</v>
+      </c>
+      <c r="O20" t="s">
+        <v>216</v>
+      </c>
+      <c r="P20" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" t="s">
+        <v>215</v>
+      </c>
+      <c r="S20" t="s">
+        <v>219</v>
+      </c>
+      <c r="T20" t="s">
+        <v>216</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>15.1</v>
+      </c>
+      <c r="F21">
+        <v>699</v>
+      </c>
+      <c r="G21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="s">
+        <v>209</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>218</v>
+      </c>
+      <c r="R21" t="s">
+        <v>215</v>
+      </c>
+      <c r="S21" t="s">
+        <v>216</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>14.8</v>
+      </c>
+      <c r="F22">
+        <v>931</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>151</v>
+      </c>
+      <c r="K22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" t="s">
+        <v>194</v>
+      </c>
+      <c r="M22" t="s">
+        <v>209</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>218</v>
+      </c>
+      <c r="R22" t="s">
+        <v>216</v>
+      </c>
+      <c r="S22" t="s">
+        <v>216</v>
+      </c>
+      <c r="T22" t="s">
+        <v>215</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>5</v>
+      </c>
+      <c r="W22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23">
+        <v>14.5</v>
+      </c>
+      <c r="F23">
+        <v>780</v>
+      </c>
+      <c r="G23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" t="s">
+        <v>127</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>152</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s">
+        <v>209</v>
+      </c>
+      <c r="N23" t="s">
+        <v>209</v>
+      </c>
+      <c r="O23" t="s">
+        <v>215</v>
+      </c>
+      <c r="P23" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" t="s">
+        <v>215</v>
+      </c>
+      <c r="S23" t="s">
+        <v>216</v>
+      </c>
+      <c r="T23" t="s">
+        <v>216</v>
+      </c>
+      <c r="U23">
+        <v>4</v>
+      </c>
+      <c r="V23">
+        <v>5</v>
+      </c>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24">
+        <v>13.9</v>
+      </c>
+      <c r="F24">
+        <v>920</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" t="s">
+        <v>176</v>
+      </c>
+      <c r="L24" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s">
+        <v>209</v>
+      </c>
+      <c r="O24" t="s">
+        <v>215</v>
+      </c>
+      <c r="P24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>218</v>
+      </c>
+      <c r="R24" t="s">
+        <v>215</v>
+      </c>
+      <c r="S24" t="s">
+        <v>216</v>
+      </c>
+      <c r="T24" t="s">
+        <v>216</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24">
+        <v>7</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25">
+        <v>13.8</v>
+      </c>
+      <c r="F25">
+        <v>1169</v>
+      </c>
+      <c r="G25" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>154</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s">
+        <v>194</v>
+      </c>
+      <c r="M25" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" t="s">
+        <v>209</v>
+      </c>
+      <c r="O25" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>218</v>
+      </c>
+      <c r="R25" t="s">
+        <v>216</v>
+      </c>
+      <c r="S25" t="s">
+        <v>219</v>
+      </c>
+      <c r="T25" t="s">
+        <v>215</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>4</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26">
+        <v>13.6</v>
+      </c>
+      <c r="F26">
+        <v>900</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>184</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>212</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>215</v>
+      </c>
+      <c r="P26" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>218</v>
+      </c>
+      <c r="R26" t="s">
+        <v>215</v>
+      </c>
+      <c r="S26" t="s">
+        <v>219</v>
+      </c>
+      <c r="T26" t="s">
+        <v>216</v>
+      </c>
+      <c r="U26">
+        <v>6</v>
+      </c>
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="W26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27">
+        <v>13.6</v>
+      </c>
+      <c r="F27">
+        <v>953</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" t="s">
+        <v>194</v>
+      </c>
+      <c r="M27" t="s">
+        <v>209</v>
+      </c>
+      <c r="N27" t="s">
+        <v>209</v>
+      </c>
+      <c r="O27" t="s">
+        <v>215</v>
+      </c>
+      <c r="P27" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>218</v>
+      </c>
+      <c r="R27" t="s">
+        <v>215</v>
+      </c>
+      <c r="S27" t="s">
+        <v>219</v>
+      </c>
+      <c r="T27" t="s">
+        <v>216</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>5</v>
+      </c>
+      <c r="W27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28">
+        <v>13.5</v>
+      </c>
+      <c r="F28">
+        <v>953</v>
+      </c>
+      <c r="G28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" t="s">
+        <v>186</v>
+      </c>
+      <c r="L28" t="s">
+        <v>194</v>
+      </c>
+      <c r="M28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N28" t="s">
+        <v>209</v>
+      </c>
+      <c r="O28" t="s">
+        <v>215</v>
+      </c>
+      <c r="P28" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>218</v>
+      </c>
+      <c r="R28" t="s">
+        <v>216</v>
+      </c>
+      <c r="S28" t="s">
+        <v>216</v>
+      </c>
+      <c r="T28" t="s">
+        <v>216</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>4</v>
+      </c>
+      <c r="W28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>13.4</v>
+      </c>
+      <c r="F29">
+        <v>730</v>
+      </c>
+      <c r="G29" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" t="s">
+        <v>194</v>
+      </c>
+      <c r="M29" t="s">
+        <v>212</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+      <c r="O29" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>218</v>
+      </c>
+      <c r="R29" t="s">
+        <v>215</v>
+      </c>
+      <c r="S29" t="s">
+        <v>219</v>
+      </c>
+      <c r="T29" t="s">
+        <v>216</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30">
+        <v>12.9</v>
+      </c>
+      <c r="F30">
+        <v>870</v>
+      </c>
+      <c r="G30" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>159</v>
+      </c>
+      <c r="K30" t="s">
+        <v>187</v>
+      </c>
+      <c r="L30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" t="s">
+        <v>210</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>218</v>
+      </c>
+      <c r="R30" t="s">
+        <v>215</v>
+      </c>
+      <c r="S30" t="s">
+        <v>216</v>
+      </c>
+      <c r="T30" t="s">
+        <v>216</v>
+      </c>
+      <c r="U30">
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>7</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31">
+        <v>12.7</v>
+      </c>
+      <c r="F31">
+        <v>800</v>
+      </c>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>160</v>
+      </c>
+      <c r="K31" t="s">
+        <v>188</v>
+      </c>
+      <c r="L31" t="s">
+        <v>194</v>
+      </c>
+      <c r="M31" t="s">
+        <v>209</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>215</v>
+      </c>
+      <c r="P31" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>218</v>
+      </c>
+      <c r="R31" t="s">
+        <v>215</v>
+      </c>
+      <c r="S31" t="s">
+        <v>219</v>
+      </c>
+      <c r="T31" t="s">
+        <v>216</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <v>2</v>
+      </c>
+      <c r="W31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
         <v>88</v>
       </c>
-      <c r="M12" t="s">
-        <v>92</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="E32">
+        <v>11.1</v>
+      </c>
+      <c r="F32">
+        <v>800</v>
+      </c>
+      <c r="G32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="s">
+        <v>209</v>
+      </c>
+      <c r="N32" t="s">
+        <v>209</v>
+      </c>
+      <c r="O32" t="s">
+        <v>216</v>
+      </c>
+      <c r="P32" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>218</v>
+      </c>
+      <c r="R32" t="s">
+        <v>216</v>
+      </c>
+      <c r="S32" t="s">
+        <v>219</v>
+      </c>
+      <c r="T32" t="s">
+        <v>216</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33">
+        <v>10.8</v>
+      </c>
+      <c r="F33">
+        <v>646</v>
+      </c>
+      <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>162</v>
+      </c>
+      <c r="L33" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" t="s">
+        <v>209</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>218</v>
+      </c>
+      <c r="S33" t="s">
+        <v>216</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
         <v>90</v>
       </c>
-      <c r="O12" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>96</v>
-      </c>
-      <c r="S12" t="s">
-        <v>94</v>
-      </c>
-      <c r="T12" t="s">
-        <v>93</v>
-      </c>
-      <c r="U12" t="s">
-        <v>103</v>
-      </c>
-      <c r="V12" t="s">
+      <c r="E34">
+        <v>10.7</v>
+      </c>
+      <c r="F34">
+        <v>850</v>
+      </c>
+      <c r="G34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K34" t="s">
+        <v>190</v>
+      </c>
+      <c r="L34" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" t="s">
+        <v>210</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>215</v>
+      </c>
+      <c r="P34" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" t="s">
+        <v>216</v>
+      </c>
+      <c r="S34" t="s">
+        <v>216</v>
+      </c>
+      <c r="T34" t="s">
+        <v>216</v>
+      </c>
+      <c r="U34">
+        <v>7</v>
+      </c>
+      <c r="V34">
+        <v>7</v>
+      </c>
+      <c r="W34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="F35">
+        <v>850</v>
+      </c>
+      <c r="G35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" t="s">
         <v>102</v>
       </c>
-      <c r="W12" t="s">
-        <v>107</v>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>164</v>
+      </c>
+      <c r="L35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35" t="s">
+        <v>212</v>
+      </c>
+      <c r="N35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O35" t="s">
+        <v>216</v>
+      </c>
+      <c r="P35" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>218</v>
+      </c>
+      <c r="S35" t="s">
+        <v>219</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>4</v>
+      </c>
+      <c r="W35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36">
+        <v>9.1</v>
+      </c>
+      <c r="F36">
+        <v>1223</v>
+      </c>
+      <c r="G36" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K36" t="s">
+        <v>191</v>
+      </c>
+      <c r="L36" t="s">
+        <v>194</v>
+      </c>
+      <c r="M36" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" t="s">
+        <v>209</v>
+      </c>
+      <c r="O36" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>218</v>
+      </c>
+      <c r="R36" t="s">
+        <v>215</v>
+      </c>
+      <c r="S36" t="s">
+        <v>216</v>
+      </c>
+      <c r="T36" t="s">
+        <v>216</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>6</v>
+      </c>
+      <c r="W36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37">
+        <v>8.9</v>
+      </c>
+      <c r="F37">
+        <v>720</v>
+      </c>
+      <c r="G37" t="s">
+        <v>119</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>166</v>
+      </c>
+      <c r="K37" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" t="s">
+        <v>212</v>
+      </c>
+      <c r="N37" t="s">
+        <v>212</v>
+      </c>
+      <c r="O37" t="s">
+        <v>216</v>
+      </c>
+      <c r="P37" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R37" t="s">
+        <v>216</v>
+      </c>
+      <c r="S37" t="s">
+        <v>219</v>
+      </c>
+      <c r="T37" t="s">
+        <v>215</v>
+      </c>
+      <c r="U37">
+        <v>8</v>
+      </c>
+      <c r="V37">
+        <v>7</v>
+      </c>
+      <c r="W37" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1576,6 +3705,31 @@
     <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A35" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
+    <hyperlink ref="A37" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
